--- a/main/cmy2xyz/results/nn_logistic_lbfgs_results.xlsx
+++ b/main/cmy2xyz/results/nn_logistic_lbfgs_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,22 @@
         <v>8.132804157610394</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>{'hidden_layer_sizes': (6,), 'activation': 'logistic', 'solver': 'lbfgs', 'max_iter': 1000}</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.644803342658453</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.413785941573811</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.819335408701139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
